--- a/wgs_df_2024-07-28.xlsx
+++ b/wgs_df_2024-07-28.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="96">
   <si>
     <t>sample_id</t>
   </si>
@@ -194,103 +194,112 @@
     <t>total_length_result</t>
   </si>
   <si>
-    <t>24ARS_BGH0073</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0098</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0099</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0100</t>
-  </si>
-  <si>
-    <t>24ARS_BRH0012</t>
-  </si>
-  <si>
-    <t>24ARS_BRH0013</t>
-  </si>
-  <si>
-    <t>24ARS_BRH0054</t>
-  </si>
-  <si>
-    <t>24ARS_BRH0068</t>
-  </si>
-  <si>
-    <t>24ARS_BRT0028</t>
-  </si>
-  <si>
-    <t>24ARS_BRT0041</t>
-  </si>
-  <si>
-    <t>24ARS_CMC0007</t>
-  </si>
-  <si>
-    <t>24ARS_CRH0031</t>
-  </si>
-  <si>
-    <t>24ARS_CRH0049</t>
-  </si>
-  <si>
-    <t>24ARS_CVM0082</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0100</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0101</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0162</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0218</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0291</t>
-  </si>
-  <si>
-    <t>24ARS_DMC0292</t>
-  </si>
-  <si>
-    <t>24ARS_GMH0033</t>
-  </si>
-  <si>
-    <t>24ARS_JLM0046</t>
+    <t>22ARS_BGH0179</t>
+  </si>
+  <si>
+    <t>22ARS_VSM0456</t>
+  </si>
+  <si>
+    <t>23ARS_BRH0005</t>
+  </si>
+  <si>
+    <t>23ARS_CVM0029</t>
+  </si>
+  <si>
+    <t>23ARS_CVM0039</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0040</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0041</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0042</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0043</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0044</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0045</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0071</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0072</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0010</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0011</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0012</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0013</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0014</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0015</t>
+  </si>
+  <si>
+    <t>24ARS_STC_CVM0016</t>
+  </si>
+  <si>
+    <t>24ARS_ZMC0002</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>WARNING</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>uncertain</t>
   </si>
   <si>
+    <t>Neisseria gonorrhoeae</t>
+  </si>
+  <si>
     <t>Salmonella enterica</t>
   </si>
   <si>
+    <t>Salmonella enterica subsp. enterica serovar Anatum</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Saintpaul</t>
+  </si>
+  <si>
     <t>Salmonella enterica subsp. enterica serovar Infantis</t>
   </si>
   <si>
-    <t>Salmonella enterica subsp. enterica serovar Typhimurium</t>
-  </si>
-  <si>
-    <t>Salmonella enterica subsp. enterica serovar Enteritidis</t>
-  </si>
-  <si>
     <t>Salmonella enterica subsp. enterica serovar Typhi</t>
   </si>
   <si>
-    <t>Salmonella enterica subsp. enterica serovar Weltevreden</t>
+    <t>Salmonella enterica subsp. enterica serovar Newport</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa</t>
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -528,181 +537,181 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU2" t="n">
-        <v>144.858478</v>
+        <v>60.53592</v>
       </c>
       <c r="AV2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.98</v>
+        <v>23.63</v>
       </c>
       <c r="AX2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY2" t="n">
-        <v>47.0</v>
+        <v>85.0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA2" t="n">
-        <v>41.0</v>
+        <v>75.0</v>
       </c>
       <c r="BB2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC2" t="n">
-        <v>52.09</v>
+        <v>52.65</v>
       </c>
       <c r="BD2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE2" t="n">
-        <v>291623.0</v>
+        <v>48631.0</v>
       </c>
       <c r="BF2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BG2" t="n">
-        <v>5020885.0</v>
+        <v>2071467.0</v>
       </c>
       <c r="BH2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -716,16 +725,16 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -734,157 +743,157 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU3" t="n">
-        <v>105.858524</v>
+        <v>94.279073</v>
       </c>
       <c r="AV3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW3" t="n">
-        <v>18.11</v>
+        <v>11.33</v>
       </c>
       <c r="AX3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY3" t="n">
-        <v>55.0</v>
+        <v>543.0</v>
       </c>
       <c r="AZ3" t="s">
         <v>82</v>
       </c>
       <c r="BA3" t="n">
-        <v>49.0</v>
+        <v>109.0</v>
       </c>
       <c r="BB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC3" t="n">
-        <v>52.14</v>
+        <v>50.33</v>
       </c>
       <c r="BD3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE3" t="n">
-        <v>245434.0</v>
+        <v>53055.0</v>
       </c>
       <c r="BF3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG3" t="n">
-        <v>4977405.0</v>
+        <v>2234632.0</v>
       </c>
       <c r="BH3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -892,181 +901,181 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU4" t="n">
-        <v>124.373599</v>
+        <v>100.84358</v>
       </c>
       <c r="AV4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.97</v>
+        <v>22.43</v>
       </c>
       <c r="AX4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY4" t="n">
-        <v>38.0</v>
+        <v>80.0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA4" t="n">
-        <v>31.0</v>
+        <v>68.0</v>
       </c>
       <c r="BB4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC4" t="n">
-        <v>52.17</v>
+        <v>52.31</v>
       </c>
       <c r="BD4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE4" t="n">
-        <v>376619.0</v>
+        <v>52897.0</v>
       </c>
       <c r="BF4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG4" t="n">
-        <v>4913046.0</v>
+        <v>2180777.0</v>
       </c>
       <c r="BH4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1074,181 +1083,181 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU5" t="n">
-        <v>54.533295</v>
+        <v>82.988912</v>
       </c>
       <c r="AV5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.03</v>
+        <v>18.26</v>
       </c>
       <c r="AX5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY5" t="n">
-        <v>58.0</v>
+        <v>79.0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA5" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="BB5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC5" t="n">
-        <v>52.14</v>
+        <v>52.57</v>
       </c>
       <c r="BD5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE5" t="n">
-        <v>194191.0</v>
+        <v>58956.0</v>
       </c>
       <c r="BF5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG5" t="n">
-        <v>4975128.0</v>
+        <v>2118978.0</v>
       </c>
       <c r="BH5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1259,178 +1268,178 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU6" t="n">
-        <v>108.365284</v>
+        <v>70.688281</v>
       </c>
       <c r="AV6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.32</v>
+        <v>18.23</v>
       </c>
       <c r="AX6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY6" t="n">
-        <v>27.0</v>
+        <v>88.0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA6" t="n">
-        <v>24.0</v>
+        <v>74.0</v>
       </c>
       <c r="BB6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC6" t="n">
-        <v>52.03</v>
+        <v>52.37</v>
       </c>
       <c r="BD6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE6" t="n">
-        <v>489959.0</v>
+        <v>57741.0</v>
       </c>
       <c r="BF6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG6" t="n">
-        <v>4771132.0</v>
+        <v>2140058.0</v>
       </c>
       <c r="BH6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1438,181 +1447,181 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU7" t="n">
-        <v>105.868972</v>
+        <v>81.875557</v>
       </c>
       <c r="AV7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.36</v>
+        <v>13.77</v>
       </c>
       <c r="AX7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY7" t="n">
-        <v>25.0</v>
+        <v>62.0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA7" t="n">
-        <v>23.0</v>
+        <v>48.0</v>
       </c>
       <c r="BB7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC7" t="n">
-        <v>52.13</v>
+        <v>52.09</v>
       </c>
       <c r="BD7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE7" t="n">
-        <v>490385.0</v>
+        <v>301434.0</v>
       </c>
       <c r="BF7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG7" t="n">
-        <v>4702229.0</v>
+        <v>4987437.0</v>
       </c>
       <c r="BH7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1620,181 +1629,181 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU8" t="n">
-        <v>55.070015</v>
+        <v>105.058264</v>
       </c>
       <c r="AV8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.23</v>
+        <v>2.1</v>
       </c>
       <c r="AX8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY8" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA8" t="n">
-        <v>51.0</v>
+        <v>17.0</v>
       </c>
       <c r="BB8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC8" t="n">
-        <v>52.12</v>
+        <v>52.11</v>
       </c>
       <c r="BD8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE8" t="n">
-        <v>263338.0</v>
+        <v>742565.0</v>
       </c>
       <c r="BF8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG8" t="n">
-        <v>4950993.0</v>
+        <v>4766742.0</v>
       </c>
       <c r="BH8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -1802,181 +1811,181 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU9" t="n">
-        <v>53.55906</v>
+        <v>47.850039</v>
       </c>
       <c r="AV9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.46</v>
+        <v>6.88</v>
       </c>
       <c r="AX9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY9" t="n">
-        <v>58.0</v>
+        <v>26.0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA9" t="n">
-        <v>54.0</v>
+        <v>18.0</v>
       </c>
       <c r="BB9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC9" t="n">
-        <v>52.07</v>
+        <v>52.16</v>
       </c>
       <c r="BD9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE9" t="n">
-        <v>204318.0</v>
+        <v>728119.0</v>
       </c>
       <c r="BF9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG9" t="n">
-        <v>4736095.0</v>
+        <v>4760732.0</v>
       </c>
       <c r="BH9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1984,181 +1993,181 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU10" t="n">
-        <v>113.883292</v>
+        <v>58.21316</v>
       </c>
       <c r="AV10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.2</v>
+        <v>16.18</v>
       </c>
       <c r="AX10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY10" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA10" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="BB10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC10" t="n">
-        <v>52.08</v>
+        <v>52.13</v>
       </c>
       <c r="BD10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE10" t="n">
-        <v>204323.0</v>
+        <v>217729.0</v>
       </c>
       <c r="BF10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG10" t="n">
-        <v>4707276.0</v>
+        <v>4963591.0</v>
       </c>
       <c r="BH10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -2166,181 +2175,181 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU11" t="n">
-        <v>96.721649</v>
+        <v>99.514638</v>
       </c>
       <c r="AV11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.34</v>
+        <v>8.32</v>
       </c>
       <c r="AX11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA11" t="n">
         <v>22.0</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>21.0</v>
-      </c>
       <c r="BB11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC11" t="n">
-        <v>52.1</v>
+        <v>52.03</v>
       </c>
       <c r="BD11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE11" t="n">
-        <v>490374.0</v>
+        <v>490148.0</v>
       </c>
       <c r="BF11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG11" t="n">
-        <v>4721282.0</v>
+        <v>4773509.0</v>
       </c>
       <c r="BH11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -2348,181 +2357,181 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU12" t="n">
-        <v>43.72753</v>
+        <v>40.321907</v>
       </c>
       <c r="AV12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW12" t="n">
-        <v>10.52</v>
+        <v>6.7</v>
       </c>
       <c r="AX12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY12" t="n">
-        <v>58.0</v>
+        <v>52.0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA12" t="n">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="BB12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC12" t="n">
         <v>52.09</v>
       </c>
       <c r="BD12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE12" t="n">
-        <v>153660.0</v>
+        <v>172613.0</v>
       </c>
       <c r="BF12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG12" t="n">
-        <v>4701851.0</v>
+        <v>4703271.0</v>
       </c>
       <c r="BH12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -2533,178 +2542,178 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU13" t="n">
-        <v>103.541118</v>
+        <v>75.421935</v>
       </c>
       <c r="AV13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.19</v>
+        <v>11.78</v>
       </c>
       <c r="AX13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY13" t="n">
-        <v>16.0</v>
+        <v>56.0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA13" t="n">
-        <v>13.0</v>
+        <v>47.0</v>
       </c>
       <c r="BB13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC13" t="n">
-        <v>52.14</v>
+        <v>52.13</v>
       </c>
       <c r="BD13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE13" t="n">
-        <v>697691.0</v>
+        <v>299734.0</v>
       </c>
       <c r="BF13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG13" t="n">
-        <v>4525268.0</v>
+        <v>4975275.0</v>
       </c>
       <c r="BH13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -2715,178 +2724,178 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU14" t="n">
-        <v>76.935639</v>
+        <v>88.97284</v>
       </c>
       <c r="AV14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.53</v>
+        <v>4.11</v>
       </c>
       <c r="AX14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY14" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA14" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="BB14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC14" t="n">
-        <v>52.12</v>
+        <v>51.93</v>
       </c>
       <c r="BD14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE14" t="n">
-        <v>418650.0</v>
+        <v>466584.0</v>
       </c>
       <c r="BF14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG14" t="n">
-        <v>4707180.0</v>
+        <v>5056128.0</v>
       </c>
       <c r="BH14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -2894,181 +2903,181 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU15" t="n">
-        <v>113.62215</v>
+        <v>119.935092</v>
       </c>
       <c r="AV15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.14</v>
+        <v>15.42</v>
       </c>
       <c r="AX15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY15" t="n">
-        <v>55.0</v>
+        <v>82.0</v>
       </c>
       <c r="AZ15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA15" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
       <c r="BB15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC15" t="n">
-        <v>52.1</v>
+        <v>66.37</v>
       </c>
       <c r="BD15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE15" t="n">
-        <v>204322.0</v>
+        <v>214091.0</v>
       </c>
       <c r="BF15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG15" t="n">
-        <v>4699960.0</v>
+        <v>6392720.0</v>
       </c>
       <c r="BH15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -3076,181 +3085,181 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU16" t="n">
-        <v>107.816495</v>
+        <v>69.810172</v>
       </c>
       <c r="AV16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW16" t="n">
-        <v>15.38</v>
+        <v>4.54</v>
       </c>
       <c r="AX16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY16" t="n">
-        <v>89.0</v>
+        <v>117.0</v>
       </c>
       <c r="AZ16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA16" t="n">
-        <v>66.0</v>
+        <v>98.0</v>
       </c>
       <c r="BB16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC16" t="n">
-        <v>52.04</v>
+        <v>66.36</v>
       </c>
       <c r="BD16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE16" t="n">
-        <v>219196.0</v>
+        <v>123460.0</v>
       </c>
       <c r="BF16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG16" t="n">
-        <v>5135005.0</v>
+        <v>6394288.0</v>
       </c>
       <c r="BH16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -3258,181 +3267,181 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU17" t="n">
-        <v>81.529177</v>
+        <v>105.650727</v>
       </c>
       <c r="AV17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW17" t="n">
-        <v>15.63</v>
+        <v>7.72</v>
       </c>
       <c r="AX17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY17" t="n">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="AZ17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA17" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="BB17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC17" t="n">
-        <v>52.07</v>
+        <v>66.36</v>
       </c>
       <c r="BD17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE17" t="n">
-        <v>221808.0</v>
+        <v>178858.0</v>
       </c>
       <c r="BF17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG17" t="n">
-        <v>5031480.0</v>
+        <v>6400798.0</v>
       </c>
       <c r="BH17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -3440,181 +3449,181 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU18" t="n">
-        <v>80.687409</v>
+        <v>187.772449</v>
       </c>
       <c r="AV18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.79</v>
+        <v>7.91</v>
       </c>
       <c r="AX18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY18" t="n">
-        <v>52.0</v>
+        <v>88.0</v>
       </c>
       <c r="AZ18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA18" t="n">
-        <v>43.0</v>
+        <v>63.0</v>
       </c>
       <c r="BB18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC18" t="n">
-        <v>51.32</v>
+        <v>66.36</v>
       </c>
       <c r="BD18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE18" t="n">
-        <v>403711.0</v>
+        <v>214074.0</v>
       </c>
       <c r="BF18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG18" t="n">
-        <v>5081038.0</v>
+        <v>6404538.0</v>
       </c>
       <c r="BH18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -3622,181 +3631,181 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU19" t="n">
-        <v>92.760917</v>
+        <v>109.524143</v>
       </c>
       <c r="AV19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW19" t="n">
-        <v>10.76</v>
+        <v>7.86</v>
       </c>
       <c r="AX19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY19" t="n">
-        <v>57.0</v>
+        <v>95.0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA19" t="n">
-        <v>55.0</v>
+        <v>69.0</v>
       </c>
       <c r="BB19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC19" t="n">
-        <v>52.08</v>
+        <v>66.37</v>
       </c>
       <c r="BD19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE19" t="n">
-        <v>172569.0</v>
+        <v>187092.0</v>
       </c>
       <c r="BF19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG19" t="n">
-        <v>4701935.0</v>
+        <v>6393505.0</v>
       </c>
       <c r="BH19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -3804,181 +3813,181 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU20" t="n">
-        <v>78.668061</v>
+        <v>120.797625</v>
       </c>
       <c r="AV20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.25</v>
+        <v>4.68</v>
       </c>
       <c r="AX20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY20" t="n">
-        <v>57.0</v>
+        <v>51.0</v>
       </c>
       <c r="AZ20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA20" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="BB20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC20" t="n">
-        <v>52.15</v>
+        <v>66.42</v>
       </c>
       <c r="BD20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE20" t="n">
-        <v>319335.0</v>
+        <v>436622.0</v>
       </c>
       <c r="BF20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG20" t="n">
-        <v>4906095.0</v>
+        <v>6353608.0</v>
       </c>
       <c r="BH20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -3986,181 +3995,181 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU21" t="n">
-        <v>135.667265</v>
+        <v>156.600509</v>
       </c>
       <c r="AV21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW21" t="n">
-        <v>10.43</v>
+        <v>4.58</v>
       </c>
       <c r="AX21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY21" t="n">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="AZ21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA21" t="n">
-        <v>56.0</v>
+        <v>42.0</v>
       </c>
       <c r="BB21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC21" t="n">
-        <v>52.08</v>
+        <v>66.35</v>
       </c>
       <c r="BD21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE21" t="n">
-        <v>161697.0</v>
+        <v>467470.0</v>
       </c>
       <c r="BF21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG21" t="n">
-        <v>4733558.0</v>
+        <v>6409137.0</v>
       </c>
       <c r="BH21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -4171,360 +4180,178 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AE22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU22" t="n">
-        <v>108.941321</v>
+        <v>99.995143</v>
       </c>
       <c r="AV22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.21</v>
+        <v>11.0</v>
       </c>
       <c r="AX22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AY22" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="AZ22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA22" t="n">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
       <c r="BB22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC22" t="n">
-        <v>52.07</v>
+        <v>66.46</v>
       </c>
       <c r="BD22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE22" t="n">
-        <v>490238.0</v>
+        <v>430238.0</v>
       </c>
       <c r="BF22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG22" t="n">
-        <v>4752483.0</v>
+        <v>6331823.0</v>
       </c>
       <c r="BH22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>82</v>
-      </c>
-      <c r="R23" t="s">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V23" t="s">
-        <v>82</v>
-      </c>
-      <c r="W23" t="s">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>115.331883</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>204159.0</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>4985784.0</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/wgs_df_2024-07-28.xlsx
+++ b/wgs_df_2024-07-28.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="93">
   <si>
     <t>sample_id</t>
   </si>
@@ -194,112 +194,103 @@
     <t>total_length_result</t>
   </si>
   <si>
-    <t>22ARS_BGH0179</t>
-  </si>
-  <si>
-    <t>22ARS_VSM0456</t>
-  </si>
-  <si>
-    <t>23ARS_BRH0005</t>
-  </si>
-  <si>
-    <t>23ARS_CVM0029</t>
-  </si>
-  <si>
-    <t>23ARS_CVM0039</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0040</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0041</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0042</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0043</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0044</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0045</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0071</t>
-  </si>
-  <si>
-    <t>24ARS_BGH0072</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0010</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0011</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0012</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0013</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0014</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0015</t>
-  </si>
-  <si>
-    <t>24ARS_STC_CVM0016</t>
-  </si>
-  <si>
-    <t>24ARS_ZMC0002</t>
+    <t>24ARS_BGH0073</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0098</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0099</t>
+  </si>
+  <si>
+    <t>24ARS_BGH0100</t>
+  </si>
+  <si>
+    <t>24ARS_BRH0012</t>
+  </si>
+  <si>
+    <t>24ARS_BRH0013</t>
+  </si>
+  <si>
+    <t>24ARS_BRH0054</t>
+  </si>
+  <si>
+    <t>24ARS_BRH0068</t>
+  </si>
+  <si>
+    <t>24ARS_BRT0028</t>
+  </si>
+  <si>
+    <t>24ARS_BRT0041</t>
+  </si>
+  <si>
+    <t>24ARS_CMC0007</t>
+  </si>
+  <si>
+    <t>24ARS_CRH0031</t>
+  </si>
+  <si>
+    <t>24ARS_CRH0049</t>
+  </si>
+  <si>
+    <t>24ARS_CVM0082</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0100</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0101</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0162</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0218</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0291</t>
+  </si>
+  <si>
+    <t>24ARS_DMC0292</t>
+  </si>
+  <si>
+    <t>24ARS_GMH0033</t>
+  </si>
+  <si>
+    <t>24ARS_JLM0046</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>WARNING</t>
   </si>
   <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>uncertain</t>
   </si>
   <si>
-    <t>Neisseria gonorrhoeae</t>
-  </si>
-  <si>
     <t>Salmonella enterica</t>
   </si>
   <si>
-    <t>Salmonella enterica subsp. enterica serovar Anatum</t>
-  </si>
-  <si>
-    <t>Salmonella enterica subsp. enterica serovar Saintpaul</t>
-  </si>
-  <si>
     <t>Salmonella enterica subsp. enterica serovar Infantis</t>
   </si>
   <si>
+    <t>Salmonella enterica subsp. enterica serovar Typhimurium</t>
+  </si>
+  <si>
+    <t>Salmonella enterica subsp. enterica serovar Enteritidis</t>
+  </si>
+  <si>
     <t>Salmonella enterica subsp. enterica serovar Typhi</t>
   </si>
   <si>
-    <t>Salmonella enterica subsp. enterica serovar Newport</t>
-  </si>
-  <si>
-    <t>Pseudomonas aeruginosa</t>
+    <t>Salmonella enterica subsp. enterica serovar Weltevreden</t>
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
 </sst>
 </file>
@@ -537,181 +528,181 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU2" t="n">
-        <v>60.53592</v>
+        <v>144.858478</v>
       </c>
       <c r="AV2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW2" t="n">
-        <v>23.63</v>
+        <v>11.98</v>
       </c>
       <c r="AX2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY2" t="n">
-        <v>85.0</v>
+        <v>47.0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA2" t="n">
-        <v>75.0</v>
+        <v>41.0</v>
       </c>
       <c r="BB2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC2" t="n">
-        <v>52.65</v>
+        <v>52.09</v>
       </c>
       <c r="BD2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE2" t="n">
-        <v>48631.0</v>
+        <v>291623.0</v>
       </c>
       <c r="BF2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BG2" t="n">
-        <v>2071467.0</v>
+        <v>5020885.0</v>
       </c>
       <c r="BH2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -725,16 +716,16 @@
         <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
@@ -743,157 +734,157 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU3" t="n">
-        <v>94.279073</v>
+        <v>105.858524</v>
       </c>
       <c r="AV3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW3" t="n">
-        <v>11.33</v>
+        <v>18.11</v>
       </c>
       <c r="AX3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY3" t="n">
-        <v>543.0</v>
+        <v>55.0</v>
       </c>
       <c r="AZ3" t="s">
         <v>82</v>
       </c>
       <c r="BA3" t="n">
-        <v>109.0</v>
+        <v>49.0</v>
       </c>
       <c r="BB3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC3" t="n">
-        <v>50.33</v>
+        <v>52.14</v>
       </c>
       <c r="BD3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE3" t="n">
-        <v>53055.0</v>
+        <v>245434.0</v>
       </c>
       <c r="BF3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG3" t="n">
-        <v>2234632.0</v>
+        <v>4977405.0</v>
       </c>
       <c r="BH3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -901,181 +892,181 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU4" t="n">
-        <v>100.84358</v>
+        <v>124.373599</v>
       </c>
       <c r="AV4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW4" t="n">
-        <v>22.43</v>
+        <v>7.97</v>
       </c>
       <c r="AX4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY4" t="n">
-        <v>80.0</v>
+        <v>38.0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA4" t="n">
-        <v>68.0</v>
+        <v>31.0</v>
       </c>
       <c r="BB4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC4" t="n">
-        <v>52.31</v>
+        <v>52.17</v>
       </c>
       <c r="BD4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE4" t="n">
-        <v>52897.0</v>
+        <v>376619.0</v>
       </c>
       <c r="BF4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG4" t="n">
-        <v>2180777.0</v>
+        <v>4913046.0</v>
       </c>
       <c r="BH4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1083,181 +1074,181 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU5" t="n">
-        <v>82.988912</v>
+        <v>54.533295</v>
       </c>
       <c r="AV5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW5" t="n">
-        <v>18.26</v>
+        <v>8.03</v>
       </c>
       <c r="AX5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY5" t="n">
-        <v>79.0</v>
+        <v>58.0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA5" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="BB5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC5" t="n">
-        <v>52.57</v>
+        <v>52.14</v>
       </c>
       <c r="BD5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE5" t="n">
-        <v>58956.0</v>
+        <v>194191.0</v>
       </c>
       <c r="BF5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG5" t="n">
-        <v>2118978.0</v>
+        <v>4975128.0</v>
       </c>
       <c r="BH5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1268,178 +1259,178 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU6" t="n">
-        <v>70.688281</v>
+        <v>108.365284</v>
       </c>
       <c r="AV6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW6" t="n">
-        <v>18.23</v>
+        <v>8.32</v>
       </c>
       <c r="AX6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY6" t="n">
-        <v>88.0</v>
+        <v>27.0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA6" t="n">
-        <v>74.0</v>
+        <v>24.0</v>
       </c>
       <c r="BB6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC6" t="n">
-        <v>52.37</v>
+        <v>52.03</v>
       </c>
       <c r="BD6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE6" t="n">
-        <v>57741.0</v>
+        <v>489959.0</v>
       </c>
       <c r="BF6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG6" t="n">
-        <v>2140058.0</v>
+        <v>4771132.0</v>
       </c>
       <c r="BH6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1447,181 +1438,181 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU7" t="n">
-        <v>81.875557</v>
+        <v>105.868972</v>
       </c>
       <c r="AV7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW7" t="n">
-        <v>13.77</v>
+        <v>8.36</v>
       </c>
       <c r="AX7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY7" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA7" t="n">
-        <v>48.0</v>
+        <v>23.0</v>
       </c>
       <c r="BB7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC7" t="n">
-        <v>52.09</v>
+        <v>52.13</v>
       </c>
       <c r="BD7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE7" t="n">
-        <v>301434.0</v>
+        <v>490385.0</v>
       </c>
       <c r="BF7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG7" t="n">
-        <v>4987437.0</v>
+        <v>4702229.0</v>
       </c>
       <c r="BH7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1629,181 +1620,181 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU8" t="n">
-        <v>105.058264</v>
+        <v>55.070015</v>
       </c>
       <c r="AV8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.1</v>
+        <v>8.23</v>
       </c>
       <c r="AX8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY8" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA8" t="n">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
       <c r="BB8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC8" t="n">
-        <v>52.11</v>
+        <v>52.12</v>
       </c>
       <c r="BD8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE8" t="n">
-        <v>742565.0</v>
+        <v>263338.0</v>
       </c>
       <c r="BF8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG8" t="n">
-        <v>4766742.0</v>
+        <v>4950993.0</v>
       </c>
       <c r="BH8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1811,181 +1802,181 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU9" t="n">
-        <v>47.850039</v>
+        <v>53.55906</v>
       </c>
       <c r="AV9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.88</v>
+        <v>6.46</v>
       </c>
       <c r="AX9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY9" t="n">
-        <v>26.0</v>
+        <v>58.0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA9" t="n">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="BB9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC9" t="n">
-        <v>52.16</v>
+        <v>52.07</v>
       </c>
       <c r="BD9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE9" t="n">
-        <v>728119.0</v>
+        <v>204318.0</v>
       </c>
       <c r="BF9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG9" t="n">
-        <v>4760732.0</v>
+        <v>4736095.0</v>
       </c>
       <c r="BH9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1993,181 +1984,181 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU10" t="n">
-        <v>58.21316</v>
+        <v>113.883292</v>
       </c>
       <c r="AV10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW10" t="n">
-        <v>16.18</v>
+        <v>4.2</v>
       </c>
       <c r="AX10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY10" t="n">
-        <v>58.0</v>
+        <v>54.0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA10" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="BB10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC10" t="n">
-        <v>52.13</v>
+        <v>52.08</v>
       </c>
       <c r="BD10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE10" t="n">
-        <v>217729.0</v>
+        <v>204323.0</v>
       </c>
       <c r="BF10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG10" t="n">
-        <v>4963591.0</v>
+        <v>4707276.0</v>
       </c>
       <c r="BH10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -2175,181 +2166,181 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU11" t="n">
-        <v>99.514638</v>
+        <v>96.721649</v>
       </c>
       <c r="AV11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.32</v>
+        <v>8.34</v>
       </c>
       <c r="AX11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY11" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="AZ11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA11" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="BB11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC11" t="n">
-        <v>52.03</v>
+        <v>52.1</v>
       </c>
       <c r="BD11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE11" t="n">
-        <v>490148.0</v>
+        <v>490374.0</v>
       </c>
       <c r="BF11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG11" t="n">
-        <v>4773509.0</v>
+        <v>4721282.0</v>
       </c>
       <c r="BH11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -2357,181 +2348,181 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU12" t="n">
-        <v>40.321907</v>
+        <v>43.72753</v>
       </c>
       <c r="AV12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.7</v>
+        <v>10.52</v>
       </c>
       <c r="AX12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY12" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA12" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="BB12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC12" t="n">
         <v>52.09</v>
       </c>
       <c r="BD12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE12" t="n">
-        <v>172613.0</v>
+        <v>153660.0</v>
       </c>
       <c r="BF12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG12" t="n">
-        <v>4703271.0</v>
+        <v>4701851.0</v>
       </c>
       <c r="BH12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -2542,178 +2533,178 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU13" t="n">
-        <v>75.421935</v>
+        <v>103.541118</v>
       </c>
       <c r="AV13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW13" t="n">
-        <v>11.78</v>
+        <v>2.19</v>
       </c>
       <c r="AX13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY13" t="n">
-        <v>56.0</v>
+        <v>16.0</v>
       </c>
       <c r="AZ13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA13" t="n">
-        <v>47.0</v>
+        <v>13.0</v>
       </c>
       <c r="BB13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC13" t="n">
-        <v>52.13</v>
+        <v>52.14</v>
       </c>
       <c r="BD13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE13" t="n">
-        <v>299734.0</v>
+        <v>697691.0</v>
       </c>
       <c r="BF13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG13" t="n">
-        <v>4975275.0</v>
+        <v>4525268.0</v>
       </c>
       <c r="BH13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -2724,178 +2715,178 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>94</v>
-      </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU14" t="n">
-        <v>88.97284</v>
+        <v>76.935639</v>
       </c>
       <c r="AV14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.11</v>
+        <v>6.53</v>
       </c>
       <c r="AX14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY14" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="AZ14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA14" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="BB14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC14" t="n">
-        <v>51.93</v>
+        <v>52.12</v>
       </c>
       <c r="BD14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE14" t="n">
-        <v>466584.0</v>
+        <v>418650.0</v>
       </c>
       <c r="BF14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG14" t="n">
-        <v>5056128.0</v>
+        <v>4707180.0</v>
       </c>
       <c r="BH14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -2903,181 +2894,181 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU15" t="n">
-        <v>119.935092</v>
+        <v>113.62215</v>
       </c>
       <c r="AV15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW15" t="n">
-        <v>15.42</v>
+        <v>4.14</v>
       </c>
       <c r="AX15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY15" t="n">
-        <v>82.0</v>
+        <v>55.0</v>
       </c>
       <c r="AZ15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA15" t="n">
-        <v>65.0</v>
+        <v>48.0</v>
       </c>
       <c r="BB15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC15" t="n">
-        <v>66.37</v>
+        <v>52.1</v>
       </c>
       <c r="BD15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE15" t="n">
-        <v>214091.0</v>
+        <v>204322.0</v>
       </c>
       <c r="BF15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG15" t="n">
-        <v>6392720.0</v>
+        <v>4699960.0</v>
       </c>
       <c r="BH15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -3085,181 +3076,181 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU16" t="n">
-        <v>69.810172</v>
+        <v>107.816495</v>
       </c>
       <c r="AV16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.54</v>
+        <v>15.38</v>
       </c>
       <c r="AX16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY16" t="n">
-        <v>117.0</v>
+        <v>89.0</v>
       </c>
       <c r="AZ16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA16" t="n">
-        <v>98.0</v>
+        <v>66.0</v>
       </c>
       <c r="BB16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC16" t="n">
-        <v>66.36</v>
+        <v>52.04</v>
       </c>
       <c r="BD16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE16" t="n">
-        <v>123460.0</v>
+        <v>219196.0</v>
       </c>
       <c r="BF16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG16" t="n">
-        <v>6394288.0</v>
+        <v>5135005.0</v>
       </c>
       <c r="BH16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3267,181 +3258,181 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU17" t="n">
-        <v>105.650727</v>
+        <v>81.529177</v>
       </c>
       <c r="AV17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.72</v>
+        <v>15.63</v>
       </c>
       <c r="AX17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY17" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="AZ17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA17" t="n">
-        <v>71.0</v>
+        <v>68.0</v>
       </c>
       <c r="BB17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC17" t="n">
-        <v>66.36</v>
+        <v>52.07</v>
       </c>
       <c r="BD17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE17" t="n">
-        <v>178858.0</v>
+        <v>221808.0</v>
       </c>
       <c r="BF17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG17" t="n">
-        <v>6400798.0</v>
+        <v>5031480.0</v>
       </c>
       <c r="BH17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -3449,181 +3440,181 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU18" t="n">
-        <v>187.772449</v>
+        <v>80.687409</v>
       </c>
       <c r="AV18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.91</v>
+        <v>9.79</v>
       </c>
       <c r="AX18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY18" t="n">
-        <v>88.0</v>
+        <v>52.0</v>
       </c>
       <c r="AZ18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA18" t="n">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="BB18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC18" t="n">
-        <v>66.36</v>
+        <v>51.32</v>
       </c>
       <c r="BD18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE18" t="n">
-        <v>214074.0</v>
+        <v>403711.0</v>
       </c>
       <c r="BF18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG18" t="n">
-        <v>6404538.0</v>
+        <v>5081038.0</v>
       </c>
       <c r="BH18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -3631,181 +3622,181 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU19" t="n">
-        <v>109.524143</v>
+        <v>92.760917</v>
       </c>
       <c r="AV19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.86</v>
+        <v>10.76</v>
       </c>
       <c r="AX19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY19" t="n">
-        <v>95.0</v>
+        <v>57.0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA19" t="n">
-        <v>69.0</v>
+        <v>55.0</v>
       </c>
       <c r="BB19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC19" t="n">
-        <v>66.37</v>
+        <v>52.08</v>
       </c>
       <c r="BD19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE19" t="n">
-        <v>187092.0</v>
+        <v>172569.0</v>
       </c>
       <c r="BF19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG19" t="n">
-        <v>6393505.0</v>
+        <v>4701935.0</v>
       </c>
       <c r="BH19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3813,181 +3804,181 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU20" t="n">
-        <v>120.797625</v>
+        <v>78.668061</v>
       </c>
       <c r="AV20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.68</v>
+        <v>4.25</v>
       </c>
       <c r="AX20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY20" t="n">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="AZ20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA20" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="BB20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC20" t="n">
-        <v>66.42</v>
+        <v>52.15</v>
       </c>
       <c r="BD20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE20" t="n">
-        <v>436622.0</v>
+        <v>319335.0</v>
       </c>
       <c r="BF20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG20" t="n">
-        <v>6353608.0</v>
+        <v>4906095.0</v>
       </c>
       <c r="BH20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -3995,181 +3986,181 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AT21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU21" t="n">
-        <v>156.600509</v>
+        <v>135.667265</v>
       </c>
       <c r="AV21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.58</v>
+        <v>10.43</v>
       </c>
       <c r="AX21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY21" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="AZ21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA21" t="n">
-        <v>42.0</v>
+        <v>56.0</v>
       </c>
       <c r="BB21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC21" t="n">
-        <v>66.35</v>
+        <v>52.08</v>
       </c>
       <c r="BD21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE21" t="n">
-        <v>467470.0</v>
+        <v>161697.0</v>
       </c>
       <c r="BF21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG21" t="n">
-        <v>6409137.0</v>
+        <v>4733558.0</v>
       </c>
       <c r="BH21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4180,178 +4171,360 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s">
+        <v>83</v>
+      </c>
+      <c r="V22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>108.941321</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>490238.0</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>4752483.0</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="V22" t="s">
-        <v>83</v>
-      </c>
-      <c r="W22" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>99.995143</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>66.46</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>430238.0</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>6331823.0</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>83</v>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>82</v>
+      </c>
+      <c r="R23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V23" t="s">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>115.331883</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>204159.0</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>4985784.0</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
